--- a/fellowes2025-10-09_07-32.xlsx
+++ b/fellowes2025-10-09_07-32.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9180" uniqueCount="3140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9862" uniqueCount="3353">
   <si>
     <t>File Name</t>
   </si>
@@ -9432,6 +9432,645 @@
   </si>
   <si>
     <t>ee2aa69e78174c4d8b0cb3710094b142</t>
+  </si>
+  <si>
+    <t>Sola-A4-situ-c-57456.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Sola-A4-situ-c-57456.tif</t>
+  </si>
+  <si>
+    <t>ba301e8da1fe405bb579b3710094b9d2</t>
+  </si>
+  <si>
+    <t>Sola-A4-situ-d-57456.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Sola-A4-situ-d-57456.tif</t>
+  </si>
+  <si>
+    <t>3e631b0dc4424c24b6cbb3710094be96</t>
+  </si>
+  <si>
+    <t>Sola-F_Paper-021319.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Sola-F_Paper-021319.tif</t>
+  </si>
+  <si>
+    <t>d233066710a44eada45db3710094c1ec</t>
+  </si>
+  <si>
+    <t>Sola-F-021319.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Sola-F-021319.tif</t>
+  </si>
+  <si>
+    <t>992ee332285741d8b30db3710094cc6d</t>
+  </si>
+  <si>
+    <t>Sola-L_Paper-021319.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Sola-L_Paper-021319.tif</t>
+  </si>
+  <si>
+    <t>2a5731dc4b2b444b9b12b3710094cec4</t>
+  </si>
+  <si>
+    <t>Sola-R_Paper-021319.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Sola-R_Paper-021319.tif</t>
+  </si>
+  <si>
+    <t>b298c65d806a4966a356b3710094d2b2</t>
+  </si>
+  <si>
+    <t>Sola-R-021319.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Sola-R-021319.tif</t>
+  </si>
+  <si>
+    <t>b2b65ef9674d4a3489edb3710094dcbd</t>
+  </si>
+  <si>
+    <t>Staples PKG 3D.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Staples PKG 3D.tif</t>
+  </si>
+  <si>
+    <t>9d286c73c32f47e98252b3710094e0be</t>
+  </si>
+  <si>
+    <t>Staples-Half-Strip-Info_020822_1.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Staples-Half-Strip-Info_020822_1.tif</t>
+  </si>
+  <si>
+    <t>b90403fd686e4c16ba1ab3710094e511</t>
+  </si>
+  <si>
+    <t>Staples-Half-Strip-Info_020822_3.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Staples-Half-Strip-Info_020822_3.tif</t>
+  </si>
+  <si>
+    <t>93d75d06ae274c158bccb3710094f109</t>
+  </si>
+  <si>
+    <t>Staples-Half-Strip-Info_020822_2.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Staples-Half-Strip-Info_020822_2.tif</t>
+  </si>
+  <si>
+    <t>607e2a8b88e341ac8b59b3710094f02e</t>
+  </si>
+  <si>
+    <t>Staples-Half-Strip-Info_020822_4.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Staples-Half-Strip-Info_020822_4.tif</t>
+  </si>
+  <si>
+    <t>25b8a6d8e5eb43df9c43b3710094f5a7</t>
+  </si>
+  <si>
+    <t>Staples-Half-Strip-Info_020822_5.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Staples-Half-Strip-Info_020822_5.tif</t>
+  </si>
+  <si>
+    <t>5c2617b9bdbb40188016b371009500d6</t>
+  </si>
+  <si>
+    <t>Staples-Half-Strip-Info_020822_6.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Staples-Half-Strip-Info_020822_6.tif</t>
+  </si>
+  <si>
+    <t>556b1258d9af405da36fb371009502c3</t>
+  </si>
+  <si>
+    <t>Staples-Info_020822_2.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Staples-Info_020822_2.tif</t>
+  </si>
+  <si>
+    <t>0d9a57e3ab65414aa749b371009505a4</t>
+  </si>
+  <si>
+    <t>Staples-Info_020822_4.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Staples-Info_020822_4.tif</t>
+  </si>
+  <si>
+    <t>d6a7cebc6fd04e469a37b371009513ef</t>
+  </si>
+  <si>
+    <t>Staples-Info_020822_3.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Staples-Info_020822_3.tif</t>
+  </si>
+  <si>
+    <t>6e135b4f24b64bd58f3cb3710095139d</t>
+  </si>
+  <si>
+    <t>Staples-Info_020822_5.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Staples-Info_020822_5.tif</t>
+  </si>
+  <si>
+    <t>09c1e56f83624305a635b37100951b26</t>
+  </si>
+  <si>
+    <t>Star 5217301 RO.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Star 5217301 RO.tif</t>
+  </si>
+  <si>
+    <t>247499f755a044838d44b37100952650</t>
+  </si>
+  <si>
+    <t>Starlet 2 01.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet 2 01.tif</t>
+  </si>
+  <si>
+    <t>fdec419ea6ee45cdb508b37100952819</t>
+  </si>
+  <si>
+    <t>Starlet 2 02.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet 2 02.tif</t>
+  </si>
+  <si>
+    <t>d4fd0a7870ba41ff8a67b37100952bbf</t>
+  </si>
+  <si>
+    <t>Starlet 2 plus bind Life.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet 2 plus bind Life.tif</t>
+  </si>
+  <si>
+    <t>8528fb2f185f45e89f8bb371009537c9</t>
+  </si>
+  <si>
+    <t>Starlet2 120 Life Left.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120 Life Left.tif</t>
+  </si>
+  <si>
+    <t>a54fa4983f8242d3a9c7b37100953abd</t>
+  </si>
+  <si>
+    <t>Starlet2 120_back.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_back.tif</t>
+  </si>
+  <si>
+    <t>ef762b7b8ed74bce88a8b37100953de6</t>
+  </si>
+  <si>
+    <t>Starlet2 120_chip tray.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_chip tray.tif</t>
+  </si>
+  <si>
+    <t>7c9727d5ebf34befb252b37100954c15</t>
+  </si>
+  <si>
+    <t>Starlet2 120_burst.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_burst.tif</t>
+  </si>
+  <si>
+    <t>7c472331ce6a41e59511b37100954943</t>
+  </si>
+  <si>
+    <t>Starlet2 120_comb open.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_comb open.tif</t>
+  </si>
+  <si>
+    <t>4f237ffd6ab34ff19f1eb37100955235</t>
+  </si>
+  <si>
+    <t>Starlet2 120_comb.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_comb.tif</t>
+  </si>
+  <si>
+    <t>09d4d2ad030c48c383d4b37100955c50</t>
+  </si>
+  <si>
+    <t>Starlet2 120_front.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_front.tif</t>
+  </si>
+  <si>
+    <t>d7c40baefd2e47ec8937b37100955e21</t>
+  </si>
+  <si>
+    <t>Starlet2 120_inset 1.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_inset 1.tif</t>
+  </si>
+  <si>
+    <t>95764e0d76dd46e38476b37100956337</t>
+  </si>
+  <si>
+    <t>Starlet2 120_inset 2.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_inset 2.tif</t>
+  </si>
+  <si>
+    <t>b776f42e3d4b458f8a12b37100956bab</t>
+  </si>
+  <si>
+    <t>Starlet2 120_L Down NA.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_L Down NA.tif</t>
+  </si>
+  <si>
+    <t>82b7159e96774ae4a1f9b37100957541</t>
+  </si>
+  <si>
+    <t>Starlet2 120_L Down 1.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_L Down 1.tif</t>
+  </si>
+  <si>
+    <t>d4adfde093d84043b944b37100957196</t>
+  </si>
+  <si>
+    <t>Starlet2 120_L Down.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_L Down.tif</t>
+  </si>
+  <si>
+    <t>67bc8e21c51d4d4e932db37100958034</t>
+  </si>
+  <si>
+    <t>Starlet2 120_open comb.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_open comb.tif</t>
+  </si>
+  <si>
+    <t>491e49b858d64fffb872b3710095868b</t>
+  </si>
+  <si>
+    <t>Starlet2 120_Left High.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_Left High.tif</t>
+  </si>
+  <si>
+    <t>c4676e056a9a4be8a174b37100958662</t>
+  </si>
+  <si>
+    <t>Starlet2 120_P R NA.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_P R NA.tif</t>
+  </si>
+  <si>
+    <t>d84672698309421e80c7b3710095933d</t>
+  </si>
+  <si>
+    <t>Starlet2 120_P R.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_P R.tif</t>
+  </si>
+  <si>
+    <t>b9c51d297e6c4529bcb4b3710095972a</t>
+  </si>
+  <si>
+    <t>Starlet2 120_R Down 2.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_R Down 2.tif</t>
+  </si>
+  <si>
+    <t>661c6adbd7f44b98b311b37100959aa3</t>
+  </si>
+  <si>
+    <t>Starlet2 120_R Paper.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_R Paper.tif</t>
+  </si>
+  <si>
+    <t>80b683b8fb194e0cb6f0b3710095a549</t>
+  </si>
+  <si>
+    <t>Starlet2 120_top.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_top.tif</t>
+  </si>
+  <si>
+    <t>a8c53a14f47b45cea23bb3710095aea6</t>
+  </si>
+  <si>
+    <t>Starlet2 120_right high.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2 120_right high.tif</t>
+  </si>
+  <si>
+    <t>315d58b46ffa4eceb628b3710095a9ef</t>
+  </si>
+  <si>
+    <t>Starlet2_120_L_Down_NA_Paper.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Starlet2_120_L_Down_NA_Paper.tif</t>
+  </si>
+  <si>
+    <t>2516aaba107643e7a932b3710095b695</t>
+  </si>
+  <si>
+    <t>Step1 Adhessive A3 Home 070116.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Step1 Adhessive A3 Home 070116.tif</t>
+  </si>
+  <si>
+    <t>3446b30ef78b4d23ad9eb3710095c0d6</t>
+  </si>
+  <si>
+    <t>1.45 MB</t>
+  </si>
+  <si>
+    <t>Step1 Adhessive A3 Office 070116.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Step1 Adhessive A3 Office 070116.tif</t>
+  </si>
+  <si>
+    <t>65225bd90b184d99a3eab3710095c0c7</t>
+  </si>
+  <si>
+    <t>1.39 MB</t>
+  </si>
+  <si>
+    <t>Step1 Adhessive A4 home 070116.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Step1 Adhessive A4 home 070116.tif</t>
+  </si>
+  <si>
+    <t>ab5aa47a797c42c9884db3710095c936</t>
+  </si>
+  <si>
+    <t>Stockyard-Titan-1047.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Stockyard-Titan-1047.tif</t>
+  </si>
+  <si>
+    <t>abc8e6b513554012a23bb3710095d7a3</t>
+  </si>
+  <si>
+    <t>Stockyard-Titan-1001.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Stockyard-Titan-1001.tif</t>
+  </si>
+  <si>
+    <t>7497badd083d4a9d8f92b3710095d946</t>
+  </si>
+  <si>
+    <t>Stockyard-Titan-1066.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Stockyard-Titan-1066.tif</t>
+  </si>
+  <si>
+    <t>c5931d995de140188f99b3710095de7e</t>
+  </si>
+  <si>
+    <t>Stockyard-Titan-1121.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Stockyard-Titan-1121.tif</t>
+  </si>
+  <si>
+    <t>67b2dcabcc5143289581b3710095edca</t>
+  </si>
+  <si>
+    <t>Stockyard-Titan-Derek.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Stockyard-Titan-Derek.tif</t>
+  </si>
+  <si>
+    <t>5cc6e39ad1894982bed1b3710095edd2</t>
+  </si>
+  <si>
+    <t>25.45 MB</t>
+  </si>
+  <si>
+    <t>Titan-Display-0817.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Titan-Display-0817.tif</t>
+  </si>
+  <si>
+    <t>618e70426e1548968312b3710095f2db</t>
+  </si>
+  <si>
+    <t>Titan-Display-0861.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Titan-Display-0861.tif</t>
+  </si>
+  <si>
+    <t>fdb36b4129354e78a60cb3710096037e</t>
+  </si>
+  <si>
+    <t>Titan-Display-0866.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Titan-Display-0866.tif</t>
+  </si>
+  <si>
+    <t>caed34e0a63f40b08248b3710096076c</t>
+  </si>
+  <si>
+    <t>Titan-Display-0891.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Titan-Display-0891.tif</t>
+  </si>
+  <si>
+    <t>fd309c5e822345669740b37100960bd3</t>
+  </si>
+  <si>
+    <t>Titan-Display-0953.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Titan-Display-0953.tif</t>
+  </si>
+  <si>
+    <t>06856d31ed3e40c1a4d3b37100961842</t>
+  </si>
+  <si>
+    <t>Titan-Display-0959.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Titan-Display-0959.tif</t>
+  </si>
+  <si>
+    <t>119eb4864bea4242858bb37100961cac</t>
+  </si>
+  <si>
+    <t>Titan-Display-0980.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Titan-Display-0980.tif</t>
+  </si>
+  <si>
+    <t>3d3e15f467a54233bdbfb3710096222b</t>
+  </si>
+  <si>
+    <t>UWP-InOffice-LS-1Model-CU-091823-1.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/UWP-InOffice-LS-1Model-CU-091823-1.tif</t>
+  </si>
+  <si>
+    <t>154fb7f978be42b8a9fab37100962e0c</t>
+  </si>
+  <si>
+    <t>21.31 MB</t>
+  </si>
+  <si>
+    <t>UWP-InOffice-LS-1Model-DualScreens-091823-1.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/UWP-InOffice-LS-1Model-DualScreens-091823-1.tif</t>
+  </si>
+  <si>
+    <t>8988e823473c4b52b27eb37100963271</t>
+  </si>
+  <si>
+    <t>18.93 MB</t>
+  </si>
+  <si>
+    <t>UWP-InOffice-LS-1Model-Working-091823-1.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/UWP-InOffice-LS-1Model-Working-091823-1.tif</t>
+  </si>
+  <si>
+    <t>d3f217ff6085459db5abb371009635ff</t>
+  </si>
+  <si>
+    <t>UWP-InOffice-LS-1Model-Working-091823-2.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/UWP-InOffice-LS-1Model-Working-091823-2.tif</t>
+  </si>
+  <si>
+    <t>c48ffdb4b5ad4ddbbb09b37100964225</t>
+  </si>
+  <si>
+    <t>18.25 MB</t>
+  </si>
+  <si>
+    <t>UWP-InOffice-LS-2Models-091823-1.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/UWP-InOffice-LS-2Models-091823-1.tif</t>
+  </si>
+  <si>
+    <t>a2f771e526b7468ba8e4b37100964812</t>
+  </si>
+  <si>
+    <t>20.27 MB</t>
+  </si>
+  <si>
+    <t>Venus 125_5215901_RP.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Venus 125_5215901_RP.tif</t>
+  </si>
+  <si>
+    <t>e76195dc24214fd69c87b3710096480d</t>
+  </si>
+  <si>
+    <t>Victory_Isolated.jpg</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Victory_Isolated.jpg</t>
+  </si>
+  <si>
+    <t>94ebeb03d4de4a7582d6b37100965340</t>
+  </si>
+  <si>
+    <t>Vita QS 4x6 Verticall-WHT-R-041724.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Vita QS 4x6 Verticall-WHT-R-041724.tif</t>
+  </si>
+  <si>
+    <t>a6008697bdba4890ad68b37100965a1d</t>
+  </si>
+  <si>
+    <t>Web_Home Page_Greeting_L.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Web_Home Page_Greeting_L.tif</t>
+  </si>
+  <si>
+    <t>e42564070eaf434cb10db37100965af4</t>
+  </si>
+  <si>
+    <t>Wire_Binding14.tif</t>
+  </si>
+  <si>
+    <t>https://stageassets.fellowes.com/migration/aprimo/repo/Fellowes-Image/en-US/Wire_Binding14.tif</t>
+  </si>
+  <si>
+    <t>b584a0fd5f67440d97e6b37100966319</t>
+  </si>
+  <si>
+    <t>Total File Size:</t>
+  </si>
+  <si>
+    <t>10092.89 MB</t>
   </si>
 </sst>
 </file>
@@ -9476,7 +10115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J918"/>
+  <dimension ref="A1:J987"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -38858,6 +39497,2190 @@
         <v>647</v>
       </c>
     </row>
+    <row r="919">
+      <c r="A919" t="s" s="0">
+        <v>3140</v>
+      </c>
+      <c r="B919" t="s" s="0">
+        <v>3141</v>
+      </c>
+      <c r="C919" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D919" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E919" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F919" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G919" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H919" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I919" t="s" s="0">
+        <v>3142</v>
+      </c>
+      <c r="J919" t="s" s="0">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="s" s="0">
+        <v>3143</v>
+      </c>
+      <c r="B920" t="s" s="0">
+        <v>3144</v>
+      </c>
+      <c r="C920" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D920" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E920" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F920" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G920" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H920" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I920" t="s" s="0">
+        <v>3145</v>
+      </c>
+      <c r="J920" t="s" s="0">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="s" s="0">
+        <v>3146</v>
+      </c>
+      <c r="B921" t="s" s="0">
+        <v>3147</v>
+      </c>
+      <c r="C921" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D921" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E921" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F921" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G921" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H921" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I921" t="s" s="0">
+        <v>3148</v>
+      </c>
+      <c r="J921" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="s" s="0">
+        <v>3149</v>
+      </c>
+      <c r="B922" t="s" s="0">
+        <v>3150</v>
+      </c>
+      <c r="C922" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D922" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E922" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F922" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G922" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H922" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I922" t="s" s="0">
+        <v>3151</v>
+      </c>
+      <c r="J922" t="s" s="0">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="s" s="0">
+        <v>3152</v>
+      </c>
+      <c r="B923" t="s" s="0">
+        <v>3153</v>
+      </c>
+      <c r="C923" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D923" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E923" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F923" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G923" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H923" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I923" t="s" s="0">
+        <v>3154</v>
+      </c>
+      <c r="J923" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="s" s="0">
+        <v>3155</v>
+      </c>
+      <c r="B924" t="s" s="0">
+        <v>3156</v>
+      </c>
+      <c r="C924" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D924" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E924" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F924" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G924" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H924" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I924" t="s" s="0">
+        <v>3157</v>
+      </c>
+      <c r="J924" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="s" s="0">
+        <v>3158</v>
+      </c>
+      <c r="B925" t="s" s="0">
+        <v>3159</v>
+      </c>
+      <c r="C925" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D925" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E925" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F925" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G925" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H925" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I925" t="s" s="0">
+        <v>3160</v>
+      </c>
+      <c r="J925" t="s" s="0">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="s" s="0">
+        <v>3161</v>
+      </c>
+      <c r="B926" t="s" s="0">
+        <v>3162</v>
+      </c>
+      <c r="C926" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D926" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E926" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F926" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G926" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H926" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I926" t="s" s="0">
+        <v>3163</v>
+      </c>
+      <c r="J926" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="s" s="0">
+        <v>3164</v>
+      </c>
+      <c r="B927" t="s" s="0">
+        <v>3165</v>
+      </c>
+      <c r="C927" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D927" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E927" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F927" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G927" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H927" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I927" t="s" s="0">
+        <v>3166</v>
+      </c>
+      <c r="J927" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="s" s="0">
+        <v>3167</v>
+      </c>
+      <c r="B928" t="s" s="0">
+        <v>3168</v>
+      </c>
+      <c r="C928" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D928" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E928" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F928" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G928" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H928" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I928" t="s" s="0">
+        <v>3169</v>
+      </c>
+      <c r="J928" t="s" s="0">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="s" s="0">
+        <v>3170</v>
+      </c>
+      <c r="B929" t="s" s="0">
+        <v>3171</v>
+      </c>
+      <c r="C929" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D929" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E929" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F929" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G929" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H929" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I929" t="s" s="0">
+        <v>3172</v>
+      </c>
+      <c r="J929" t="s" s="0">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="s" s="0">
+        <v>3173</v>
+      </c>
+      <c r="B930" t="s" s="0">
+        <v>3174</v>
+      </c>
+      <c r="C930" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D930" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E930" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F930" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G930" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H930" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I930" t="s" s="0">
+        <v>3175</v>
+      </c>
+      <c r="J930" t="s" s="0">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="s" s="0">
+        <v>3176</v>
+      </c>
+      <c r="B931" t="s" s="0">
+        <v>3177</v>
+      </c>
+      <c r="C931" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D931" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E931" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F931" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G931" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H931" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I931" t="s" s="0">
+        <v>3178</v>
+      </c>
+      <c r="J931" t="s" s="0">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="s" s="0">
+        <v>3179</v>
+      </c>
+      <c r="B932" t="s" s="0">
+        <v>3180</v>
+      </c>
+      <c r="C932" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D932" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E932" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F932" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G932" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H932" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I932" t="s" s="0">
+        <v>3181</v>
+      </c>
+      <c r="J932" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="s" s="0">
+        <v>3182</v>
+      </c>
+      <c r="B933" t="s" s="0">
+        <v>3183</v>
+      </c>
+      <c r="C933" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D933" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E933" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F933" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G933" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H933" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I933" t="s" s="0">
+        <v>3184</v>
+      </c>
+      <c r="J933" t="s" s="0">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="s" s="0">
+        <v>3185</v>
+      </c>
+      <c r="B934" t="s" s="0">
+        <v>3186</v>
+      </c>
+      <c r="C934" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D934" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E934" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F934" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G934" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H934" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I934" t="s" s="0">
+        <v>3187</v>
+      </c>
+      <c r="J934" t="s" s="0">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="s" s="0">
+        <v>3188</v>
+      </c>
+      <c r="B935" t="s" s="0">
+        <v>3189</v>
+      </c>
+      <c r="C935" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D935" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E935" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F935" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G935" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H935" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I935" t="s" s="0">
+        <v>3190</v>
+      </c>
+      <c r="J935" t="s" s="0">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="s" s="0">
+        <v>3191</v>
+      </c>
+      <c r="B936" t="s" s="0">
+        <v>3192</v>
+      </c>
+      <c r="C936" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D936" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E936" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F936" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G936" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H936" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I936" t="s" s="0">
+        <v>3193</v>
+      </c>
+      <c r="J936" t="s" s="0">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="s" s="0">
+        <v>3194</v>
+      </c>
+      <c r="B937" t="s" s="0">
+        <v>3195</v>
+      </c>
+      <c r="C937" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D937" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E937" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F937" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G937" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H937" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I937" t="s" s="0">
+        <v>3196</v>
+      </c>
+      <c r="J937" t="s" s="0">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="s" s="0">
+        <v>3197</v>
+      </c>
+      <c r="B938" t="s" s="0">
+        <v>3198</v>
+      </c>
+      <c r="C938" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D938" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E938" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F938" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G938" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H938" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I938" t="s" s="0">
+        <v>3199</v>
+      </c>
+      <c r="J938" t="s" s="0">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="s" s="0">
+        <v>3200</v>
+      </c>
+      <c r="B939" t="s" s="0">
+        <v>3201</v>
+      </c>
+      <c r="C939" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D939" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E939" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F939" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G939" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H939" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I939" t="s" s="0">
+        <v>3202</v>
+      </c>
+      <c r="J939" t="s" s="0">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="s" s="0">
+        <v>3203</v>
+      </c>
+      <c r="B940" t="s" s="0">
+        <v>3204</v>
+      </c>
+      <c r="C940" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D940" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E940" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F940" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G940" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H940" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I940" t="s" s="0">
+        <v>3205</v>
+      </c>
+      <c r="J940" t="s" s="0">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="s" s="0">
+        <v>3206</v>
+      </c>
+      <c r="B941" t="s" s="0">
+        <v>3207</v>
+      </c>
+      <c r="C941" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D941" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E941" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F941" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G941" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H941" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I941" t="s" s="0">
+        <v>3208</v>
+      </c>
+      <c r="J941" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="s" s="0">
+        <v>3209</v>
+      </c>
+      <c r="B942" t="s" s="0">
+        <v>3210</v>
+      </c>
+      <c r="C942" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D942" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E942" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F942" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G942" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H942" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I942" t="s" s="0">
+        <v>3211</v>
+      </c>
+      <c r="J942" t="s" s="0">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="s" s="0">
+        <v>3212</v>
+      </c>
+      <c r="B943" t="s" s="0">
+        <v>3213</v>
+      </c>
+      <c r="C943" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D943" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E943" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F943" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G943" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H943" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I943" t="s" s="0">
+        <v>3214</v>
+      </c>
+      <c r="J943" t="s" s="0">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="s" s="0">
+        <v>3215</v>
+      </c>
+      <c r="B944" t="s" s="0">
+        <v>3216</v>
+      </c>
+      <c r="C944" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D944" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E944" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F944" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G944" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H944" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I944" t="s" s="0">
+        <v>3217</v>
+      </c>
+      <c r="J944" t="s" s="0">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="s" s="0">
+        <v>3218</v>
+      </c>
+      <c r="B945" t="s" s="0">
+        <v>3219</v>
+      </c>
+      <c r="C945" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D945" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E945" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F945" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G945" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H945" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I945" t="s" s="0">
+        <v>3220</v>
+      </c>
+      <c r="J945" t="s" s="0">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="s" s="0">
+        <v>3221</v>
+      </c>
+      <c r="B946" t="s" s="0">
+        <v>3222</v>
+      </c>
+      <c r="C946" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D946" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E946" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F946" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G946" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H946" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I946" t="s" s="0">
+        <v>3223</v>
+      </c>
+      <c r="J946" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="s" s="0">
+        <v>3224</v>
+      </c>
+      <c r="B947" t="s" s="0">
+        <v>3225</v>
+      </c>
+      <c r="C947" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D947" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E947" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F947" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G947" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H947" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I947" t="s" s="0">
+        <v>3226</v>
+      </c>
+      <c r="J947" t="s" s="0">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="s" s="0">
+        <v>3227</v>
+      </c>
+      <c r="B948" t="s" s="0">
+        <v>3228</v>
+      </c>
+      <c r="C948" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D948" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E948" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F948" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G948" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H948" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I948" t="s" s="0">
+        <v>3229</v>
+      </c>
+      <c r="J948" t="s" s="0">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="s" s="0">
+        <v>3230</v>
+      </c>
+      <c r="B949" t="s" s="0">
+        <v>3231</v>
+      </c>
+      <c r="C949" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D949" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E949" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F949" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G949" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H949" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I949" t="s" s="0">
+        <v>3232</v>
+      </c>
+      <c r="J949" t="s" s="0">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="s" s="0">
+        <v>3233</v>
+      </c>
+      <c r="B950" t="s" s="0">
+        <v>3234</v>
+      </c>
+      <c r="C950" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D950" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E950" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F950" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G950" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H950" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I950" t="s" s="0">
+        <v>3235</v>
+      </c>
+      <c r="J950" t="s" s="0">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="s" s="0">
+        <v>3236</v>
+      </c>
+      <c r="B951" t="s" s="0">
+        <v>3237</v>
+      </c>
+      <c r="C951" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D951" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E951" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F951" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G951" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H951" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I951" t="s" s="0">
+        <v>3238</v>
+      </c>
+      <c r="J951" t="s" s="0">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="s" s="0">
+        <v>3239</v>
+      </c>
+      <c r="B952" t="s" s="0">
+        <v>3240</v>
+      </c>
+      <c r="C952" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D952" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E952" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F952" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G952" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H952" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I952" t="s" s="0">
+        <v>3241</v>
+      </c>
+      <c r="J952" t="s" s="0">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="s" s="0">
+        <v>3242</v>
+      </c>
+      <c r="B953" t="s" s="0">
+        <v>3243</v>
+      </c>
+      <c r="C953" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D953" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E953" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F953" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G953" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H953" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I953" t="s" s="0">
+        <v>3244</v>
+      </c>
+      <c r="J953" t="s" s="0">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="s" s="0">
+        <v>3245</v>
+      </c>
+      <c r="B954" t="s" s="0">
+        <v>3246</v>
+      </c>
+      <c r="C954" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D954" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E954" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F954" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G954" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H954" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I954" t="s" s="0">
+        <v>3247</v>
+      </c>
+      <c r="J954" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="s" s="0">
+        <v>3248</v>
+      </c>
+      <c r="B955" t="s" s="0">
+        <v>3249</v>
+      </c>
+      <c r="C955" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D955" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E955" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F955" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G955" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H955" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I955" t="s" s="0">
+        <v>3250</v>
+      </c>
+      <c r="J955" t="s" s="0">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="s" s="0">
+        <v>3251</v>
+      </c>
+      <c r="B956" t="s" s="0">
+        <v>3252</v>
+      </c>
+      <c r="C956" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D956" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E956" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F956" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G956" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H956" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I956" t="s" s="0">
+        <v>3253</v>
+      </c>
+      <c r="J956" t="s" s="0">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="s" s="0">
+        <v>3254</v>
+      </c>
+      <c r="B957" t="s" s="0">
+        <v>3255</v>
+      </c>
+      <c r="C957" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D957" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E957" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F957" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G957" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H957" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I957" t="s" s="0">
+        <v>3256</v>
+      </c>
+      <c r="J957" t="s" s="0">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="s" s="0">
+        <v>3257</v>
+      </c>
+      <c r="B958" t="s" s="0">
+        <v>3258</v>
+      </c>
+      <c r="C958" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D958" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E958" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F958" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G958" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H958" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I958" t="s" s="0">
+        <v>3259</v>
+      </c>
+      <c r="J958" t="s" s="0">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="s" s="0">
+        <v>3260</v>
+      </c>
+      <c r="B959" t="s" s="0">
+        <v>3261</v>
+      </c>
+      <c r="C959" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D959" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E959" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F959" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G959" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H959" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I959" t="s" s="0">
+        <v>3262</v>
+      </c>
+      <c r="J959" t="s" s="0">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="s" s="0">
+        <v>3263</v>
+      </c>
+      <c r="B960" t="s" s="0">
+        <v>3264</v>
+      </c>
+      <c r="C960" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D960" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E960" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F960" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G960" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H960" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I960" t="s" s="0">
+        <v>3265</v>
+      </c>
+      <c r="J960" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="s" s="0">
+        <v>3266</v>
+      </c>
+      <c r="B961" t="s" s="0">
+        <v>3267</v>
+      </c>
+      <c r="C961" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D961" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E961" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F961" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G961" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H961" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I961" t="s" s="0">
+        <v>3268</v>
+      </c>
+      <c r="J961" t="s" s="0">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="s" s="0">
+        <v>3269</v>
+      </c>
+      <c r="B962" t="s" s="0">
+        <v>3270</v>
+      </c>
+      <c r="C962" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D962" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E962" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F962" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G962" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H962" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I962" t="s" s="0">
+        <v>3271</v>
+      </c>
+      <c r="J962" t="s" s="0">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="s" s="0">
+        <v>3273</v>
+      </c>
+      <c r="B963" t="s" s="0">
+        <v>3274</v>
+      </c>
+      <c r="C963" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D963" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E963" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F963" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G963" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H963" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I963" t="s" s="0">
+        <v>3275</v>
+      </c>
+      <c r="J963" t="s" s="0">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="s" s="0">
+        <v>3277</v>
+      </c>
+      <c r="B964" t="s" s="0">
+        <v>3278</v>
+      </c>
+      <c r="C964" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D964" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E964" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F964" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G964" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H964" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I964" t="s" s="0">
+        <v>3279</v>
+      </c>
+      <c r="J964" t="s" s="0">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="s" s="0">
+        <v>3280</v>
+      </c>
+      <c r="B965" t="s" s="0">
+        <v>3281</v>
+      </c>
+      <c r="C965" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D965" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E965" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F965" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G965" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H965" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I965" t="s" s="0">
+        <v>3282</v>
+      </c>
+      <c r="J965" t="s" s="0">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="s" s="0">
+        <v>3283</v>
+      </c>
+      <c r="B966" t="s" s="0">
+        <v>3284</v>
+      </c>
+      <c r="C966" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D966" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E966" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F966" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G966" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H966" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I966" t="s" s="0">
+        <v>3285</v>
+      </c>
+      <c r="J966" t="s" s="0">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="s" s="0">
+        <v>3286</v>
+      </c>
+      <c r="B967" t="s" s="0">
+        <v>3287</v>
+      </c>
+      <c r="C967" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D967" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E967" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F967" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G967" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H967" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I967" t="s" s="0">
+        <v>3288</v>
+      </c>
+      <c r="J967" t="s" s="0">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="s" s="0">
+        <v>3289</v>
+      </c>
+      <c r="B968" t="s" s="0">
+        <v>3290</v>
+      </c>
+      <c r="C968" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D968" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E968" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F968" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G968" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H968" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I968" t="s" s="0">
+        <v>3291</v>
+      </c>
+      <c r="J968" t="s" s="0">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="s" s="0">
+        <v>3292</v>
+      </c>
+      <c r="B969" t="s" s="0">
+        <v>3293</v>
+      </c>
+      <c r="C969" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D969" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E969" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F969" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="G969" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H969" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I969" t="s" s="0">
+        <v>3294</v>
+      </c>
+      <c r="J969" t="s" s="0">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="s" s="0">
+        <v>3296</v>
+      </c>
+      <c r="B970" t="s" s="0">
+        <v>3297</v>
+      </c>
+      <c r="C970" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D970" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E970" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F970" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G970" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H970" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I970" t="s" s="0">
+        <v>3298</v>
+      </c>
+      <c r="J970" t="s" s="0">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="s" s="0">
+        <v>3299</v>
+      </c>
+      <c r="B971" t="s" s="0">
+        <v>3300</v>
+      </c>
+      <c r="C971" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D971" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E971" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F971" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G971" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H971" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I971" t="s" s="0">
+        <v>3301</v>
+      </c>
+      <c r="J971" t="s" s="0">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="s" s="0">
+        <v>3302</v>
+      </c>
+      <c r="B972" t="s" s="0">
+        <v>3303</v>
+      </c>
+      <c r="C972" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D972" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E972" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F972" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G972" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H972" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I972" t="s" s="0">
+        <v>3304</v>
+      </c>
+      <c r="J972" t="s" s="0">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="s" s="0">
+        <v>3305</v>
+      </c>
+      <c r="B973" t="s" s="0">
+        <v>3306</v>
+      </c>
+      <c r="C973" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D973" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E973" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="F973" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G973" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H973" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I973" t="s" s="0">
+        <v>3307</v>
+      </c>
+      <c r="J973" t="s" s="0">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="s" s="0">
+        <v>3308</v>
+      </c>
+      <c r="B974" t="s" s="0">
+        <v>3309</v>
+      </c>
+      <c r="C974" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D974" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E974" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F974" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G974" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H974" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I974" t="s" s="0">
+        <v>3310</v>
+      </c>
+      <c r="J974" t="s" s="0">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="s" s="0">
+        <v>3311</v>
+      </c>
+      <c r="B975" t="s" s="0">
+        <v>3312</v>
+      </c>
+      <c r="C975" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D975" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E975" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F975" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G975" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H975" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I975" t="s" s="0">
+        <v>3313</v>
+      </c>
+      <c r="J975" t="s" s="0">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="s" s="0">
+        <v>3314</v>
+      </c>
+      <c r="B976" t="s" s="0">
+        <v>3315</v>
+      </c>
+      <c r="C976" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D976" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E976" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F976" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G976" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H976" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I976" t="s" s="0">
+        <v>3316</v>
+      </c>
+      <c r="J976" t="s" s="0">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="s" s="0">
+        <v>3317</v>
+      </c>
+      <c r="B977" t="s" s="0">
+        <v>3318</v>
+      </c>
+      <c r="C977" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D977" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E977" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F977" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G977" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H977" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I977" t="s" s="0">
+        <v>3319</v>
+      </c>
+      <c r="J977" t="s" s="0">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="s" s="0">
+        <v>3321</v>
+      </c>
+      <c r="B978" t="s" s="0">
+        <v>3322</v>
+      </c>
+      <c r="C978" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D978" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E978" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F978" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G978" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H978" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I978" t="s" s="0">
+        <v>3323</v>
+      </c>
+      <c r="J978" t="s" s="0">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="s" s="0">
+        <v>3325</v>
+      </c>
+      <c r="B979" t="s" s="0">
+        <v>3326</v>
+      </c>
+      <c r="C979" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D979" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E979" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="F979" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G979" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H979" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I979" t="s" s="0">
+        <v>3327</v>
+      </c>
+      <c r="J979" t="s" s="0">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="s" s="0">
+        <v>3328</v>
+      </c>
+      <c r="B980" t="s" s="0">
+        <v>3329</v>
+      </c>
+      <c r="C980" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D980" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E980" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="F980" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G980" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H980" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I980" t="s" s="0">
+        <v>3330</v>
+      </c>
+      <c r="J980" t="s" s="0">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="s" s="0">
+        <v>3332</v>
+      </c>
+      <c r="B981" t="s" s="0">
+        <v>3333</v>
+      </c>
+      <c r="C981" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D981" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E981" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="F981" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G981" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H981" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I981" t="s" s="0">
+        <v>3334</v>
+      </c>
+      <c r="J981" t="s" s="0">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="s" s="0">
+        <v>3336</v>
+      </c>
+      <c r="B982" t="s" s="0">
+        <v>3337</v>
+      </c>
+      <c r="C982" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D982" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E982" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F982" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G982" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H982" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I982" t="s" s="0">
+        <v>3338</v>
+      </c>
+      <c r="J982" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="s" s="0">
+        <v>3339</v>
+      </c>
+      <c r="B983" t="s" s="0">
+        <v>3340</v>
+      </c>
+      <c r="C983" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D983" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E983" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F983" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G983" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H983" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I983" t="s" s="0">
+        <v>3341</v>
+      </c>
+      <c r="J983" t="s" s="0">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="s" s="0">
+        <v>3342</v>
+      </c>
+      <c r="B984" t="s" s="0">
+        <v>3343</v>
+      </c>
+      <c r="C984" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D984" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E984" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F984" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G984" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H984" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I984" t="s" s="0">
+        <v>3344</v>
+      </c>
+      <c r="J984" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="s" s="0">
+        <v>3345</v>
+      </c>
+      <c r="B985" t="s" s="0">
+        <v>3346</v>
+      </c>
+      <c r="C985" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D985" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E985" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F985" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="G985" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="H985" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I985" t="s" s="0">
+        <v>3347</v>
+      </c>
+      <c r="J985" t="s" s="0">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="s" s="0">
+        <v>3348</v>
+      </c>
+      <c r="B986" t="s" s="0">
+        <v>3349</v>
+      </c>
+      <c r="C986" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D986" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E986" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F986" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="G986" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H986" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="I986" t="s" s="0">
+        <v>3350</v>
+      </c>
+      <c r="J986" t="s" s="0">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="I987" t="s" s="0">
+        <v>3351</v>
+      </c>
+      <c r="J987" t="s" s="0">
+        <v>3352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
